--- a/inst/extdata/examples/xlsx/bar-group-label.xlsx
+++ b/inst/extdata/examples/xlsx/bar-group-label.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">tab</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -490,7 +496,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -508,24 +522,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>8.723</v>
@@ -536,10 +550,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>9.711</v>
@@ -550,10 +564,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
         <v>8.177</v>
@@ -564,10 +578,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
         <v>10.551</v>
@@ -578,10 +592,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
         <v>16.969</v>
@@ -592,10 +606,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
         <v>10.561</v>
@@ -606,10 +620,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
         <v>9.359</v>
@@ -620,10 +634,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
         <v>8.699</v>
@@ -634,10 +648,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
         <v>11.197</v>
@@ -648,10 +662,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
         <v>8.027</v>
